--- a/Unicode/BlocksEnFrCorrespondance.xlsx
+++ b/Unicode/BlocksEnFrCorrespondance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ParseKB\ParseKB\Unicode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147D2104-8E66-403C-96C1-E84C9836824B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E239B81C-462C-45A7-B070-15A1509F38BB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="12990" activeTab="2" xr2:uid="{31F2083E-5C31-4886-B286-9CBF5B52E645}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="12990" xr2:uid="{31F2083E-5C31-4886-B286-9CBF5B52E645}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -4486,12 +4486,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4506,7 +4512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4516,6 +4522,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4834,9 +4846,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A81F7E7-58BD-4583-9560-AD8637E70CC1}">
   <dimension ref="A1:G560"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C173" sqref="A1:E560"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20365,8 +20377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB4FC6D-BD60-48F7-8732-37174F5AF26B}">
   <dimension ref="A1:E293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20377,34 +20389,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>1470</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>1471</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>1466</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>1467</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>1468</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>1466</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1240</v>
       </c>
@@ -20728,7 +20740,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>122</v>
       </c>
@@ -20743,7 +20755,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>1285</v>
       </c>
@@ -20777,7 +20789,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>136</v>
       </c>
@@ -20794,7 +20806,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>144</v>
       </c>
@@ -20845,7 +20857,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>167</v>
       </c>
@@ -20879,7 +20891,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>183</v>
       </c>
@@ -20913,7 +20925,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>1291</v>
       </c>
@@ -20930,7 +20942,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>1294</v>
       </c>
@@ -20947,7 +20959,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>204</v>
       </c>
@@ -20964,7 +20976,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>1296</v>
       </c>
@@ -20981,7 +20993,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>217</v>
       </c>
@@ -24613,9 +24625,6 @@
       <c r="E293" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
